--- a/db/EGB-121-GroupBuy-03.xlsx
+++ b/db/EGB-121-GroupBuy-03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.5_eCommerce/eCommerce-GroupBuy/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A261592-DDD0-CD4C-9F08-4A2622562E5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5F7AAF-AAC1-AD46-B917-DE33843167CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24760" yWindow="5520" windowWidth="52480" windowHeight="25960" xr2:uid="{A01EA9A5-FBAB-A246-BC21-01B3691F2043}"/>
+    <workbookView xWindow="1440" yWindow="500" windowWidth="52480" windowHeight="25960" xr2:uid="{A01EA9A5-FBAB-A246-BC21-01B3691F2043}"/>
   </bookViews>
   <sheets>
     <sheet name="GroupBuy" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>No</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -88,23 +88,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Figure-Main</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Figure-More</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ProductInformation</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ProductSpec</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>團購</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -214,30 +202,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>大王尿布</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大王黏貼
-NB114、S104一箱2包 ($)870
-大王褲型
-M74*3沒分男女、L56*3有分男女 1270($</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M74*3, L56*3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://elleair.tw/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>20210302-1528</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20210302-1529</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -383,55 +348,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;img src=""fig/EGB-1101-猴頭杏鮑菇-03.jpg"" class=""img-fluid"" &gt;
-&lt;img src=""fig/EGB-1101-猴頭杏鮑菇-04.jpg"" class=""img-fluid"" &gt;
-&lt;img src=""fig/EGB-1101-猴頭杏鮑菇-05.jpg"" class=""img-fluid"" &gt;
-&lt;img src=""fig/EGB-1101-猴頭杏鮑菇-06.jpg"" class=""img-fluid"" &gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"&lt;div id=""carouselExampleIndicators-20210304-1415"" class=""carousel slide img-fluid"" data-ride=""carousel"" style=""width:600px""&gt;
-    &lt;ol class=""carousel-indicators""&gt;
-          &lt;li data-target=""#carouselExampleIndicators"" data-slide-to=""1"" class=""active""&gt;&lt;/li&gt;
-          &lt;li data-target=""#carouselExampleIndicators"" data-slide-to=""2""&gt;&lt;/li&gt;
-    &lt;/ol&gt;
-    &lt;div class=""carousel-inner""&gt;
-         &lt;div class=""carousel-item active""&gt; &lt;img src=""fig/EGB-1101-20210304-猴頭杏鮑菇-01.jpg"" class=""d-block w-100"" alt=""...""&gt;&lt;/div&gt;
-         &lt;div class=""carousel-item""&gt; &lt;img src=""fig/EGB-1101-20210304-猴頭杏鮑菇-02.jpg"" class=""d-block w-100"" alt=""...""&gt;&lt;/div&gt;
-     &lt;/div&gt;
-    &lt;a class=""carousel-control-prev"" href=""#carouselExampleIndicators-20210304-1415"" role=""button"" data-slide=""prev""&gt;
-         &lt;span class=""carousel-control-prev-icon"" aria-hidden=""true""&gt;&lt;/span&gt;
-         &lt;span class=""sr-only""&gt;Previous&lt;/span&gt;
-     &lt;/a&gt;
-     &lt;a class=""carousel-control-next"" href=""#carouselExampleIndicators-20210304-1415"" role=""button"" data-slide=""next""&gt;
-         &lt;span class=""carousel-control-next-icon"" aria-hidden=""true""&gt;&lt;/span&gt;
-         &lt;span class=""sr-only""&gt;Next&lt;/span&gt;
-    &lt;/a&gt;
-&lt;/div&gt;"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"&lt;div id=""carouselExampleIndicators-20210302-1528"" class=""carousel slide img-fluid"" data-ride=""carousel"" style=""width:600px""&gt;
-    &lt;ol class=""carousel-indicators""&gt;
-          &lt;li data-target=""#carouselExampleIndicators"" data-slide-to=""1"" class=""active""&gt;&lt;/li&gt;
-          &lt;li data-target=""#carouselExampleIndicators"" data-slide-to=""2""&gt;&lt;/li&gt;
-    &lt;/ol&gt;
-    &lt;div class=""carousel-inner""&gt;
-         &lt;div class=""carousel-item active""&gt; &lt;img src=""fig/EGB-1101-20210302-貝親濕紙巾-01.jpg"" class=""d-block w-100"" alt=""...""&gt;&lt;/div&gt;
-         &lt;div class=""carousel-item""&gt; &lt;img src=""fig/EGB-1101-20210302-貝親濕紙巾-02.jpg"" class=""d-block w-100"" alt=""...""&gt;&lt;/div&gt;
-     &lt;/div&gt;
-    &lt;a class=""carousel-control-prev"" href=""#carouselExampleIndicators-20210302-1528"" role=""button"" data-slide=""prev""&gt;
-         &lt;span class=""carousel-control-prev-icon"" aria-hidden=""true""&gt;&lt;/span&gt;
-         &lt;span class=""sr-only""&gt;Previous&lt;/span&gt;
-     &lt;/a&gt;
-     &lt;a class=""carousel-control-next"" href=""#carouselExampleIndicators-20210302-1528"" role=""button"" data-slide=""next""&gt;
-         &lt;span class=""carousel-control-next-icon"" aria-hidden=""true""&gt;&lt;/span&gt;
-         &lt;span class=""sr-only""&gt;Next&lt;/span&gt;
-    &lt;/a&gt;
-&lt;/div&gt;"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.pigeonbaby.com.tw/product.asp?classify=196</t>
   </si>
   <si>
@@ -462,25 +378,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"&lt;div id=""carouselExampleIndicators-20210302-1441"" class=""carousel slide img-fluid"" data-ride=""carousel"" style=""width:600px""&gt;
-    &lt;ol class=""carousel-indicators""&gt;
-          &lt;li data-target=""#carouselExampleIndicators"" data-slide-to=""1"" class=""active""&gt;&lt;/li&gt;
-    &lt;/ol&gt;
-    &lt;div class=""carousel-inner""&gt;
-         &lt;div class=""carousel-item active""&gt; &lt;img src=""fig/EGB-1101-20210302-幫寶適-01.jpg"" class=""d-block w-100"" alt=""...""&gt;&lt;/div&gt;
-     &lt;/div&gt;
-    &lt;a class=""carousel-control-prev"" href=""#carouselExampleIndicators-20210302-1441"" role=""button"" data-slide=""prev""&gt;
-         &lt;span class=""carousel-control-prev-icon"" aria-hidden=""true""&gt;&lt;/span&gt;
-         &lt;span class=""sr-only""&gt;Previous&lt;/span&gt;
-     &lt;/a&gt;
-     &lt;a class=""carousel-control-next"" href=""#carouselExampleIndicators-20210302-1441"" role=""button"" data-slide=""next""&gt;
-         &lt;span class=""carousel-control-next-icon"" aria-hidden=""true""&gt;&lt;/span&gt;
-         &lt;span class=""sr-only""&gt;Next&lt;/span&gt;
-    &lt;/a&gt;
-&lt;/div&gt;"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.pampers.com.tw/%E7%94%A2%E5%93%81</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -504,29 +401,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"&lt;div id=""carouselExampleIndicators-20210302-1326"" class=""carousel slide img-fluid"" data-ride=""carousel"" style=""width:600px""&gt;
-    &lt;ol class=""carousel-indicators""&gt;
-          &lt;li data-target=""#carouselExampleIndicators"" data-slide-to=""1"" class=""active""&gt;&lt;/li&gt;
-          &lt;li data-target=""#carouselExampleIndicators"" data-slide-to=""2"" &gt;&lt;/li&gt;
-          &lt;li data-target=""#carouselExampleIndicators"" data-slide-to=""3"" &gt;&lt;/li&gt;
-    &lt;/ol&gt;
-    &lt;div class=""carousel-inner""&gt;
-         &lt;div class=""carousel-item active""&gt; &lt;img src=""fig/EGB-1101-20210302-消脂茶-01.jpg"" class=""d-block w-100"" alt=""...""&gt;&lt;/div&gt;
-         &lt;div class=""carousel-item active""&gt; &lt;img src=""fig/EGB-1101-20210302-消脂茶-02.jpg"" class=""d-block w-100"" alt=""...""&gt;&lt;/div&gt;
-         &lt;div class=""carousel-item active""&gt; &lt;img src=""fig/EGB-1101-20210302-消脂茶-03.jpg"" class=""d-block w-100"" alt=""...""&gt;&lt;/div&gt; 
-     &lt;/div&gt;
-    &lt;a class=""carousel-control-prev"" href=""#carouselExampleIndicators-20210302-1326"" role=""button"" data-slide=""prev""&gt;
-         &lt;span class=""carousel-control-prev-icon"" aria-hidden=""true""&gt;&lt;/span&gt;
-         &lt;span class=""sr-only""&gt;Previous&lt;/span&gt;
-     &lt;/a&gt;
-     &lt;a class=""carousel-control-next"" href=""#carouselExampleIndicators-20210302-1326"" role=""button"" data-slide=""next""&gt;
-         &lt;span class=""carousel-control-next-icon"" aria-hidden=""true""&gt;&lt;/span&gt;
-         &lt;span class=""sr-only""&gt;Next&lt;/span&gt;
-    &lt;/a&gt;
-&lt;/div&gt;"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>預期到過年大魚大肉躺在沙發當馬鈴薯人了嗎！
 年還沒到！朋友已敲碗許願！
@@ -551,6 +425,111 @@
       </rPr>
       <t>‼️隔天若有整天的戶外活動不建議飲用喔‼️</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在熱賣</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FigureMain</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FigureMore</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-20210304-1415" class="carousel slide img-fluid" data-ride="carousel" style="width:600px"&gt;
+    &lt;ol class="carousel-indicators"&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="1" class="active"&gt;&lt;/li&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="2"&gt;&lt;/li&gt;
+    &lt;/ol&gt;
+    &lt;div class="carousel-inner"&gt;
+         &lt;div class="carousel-item active"&gt; &lt;img src="fig/EGB-1101-20210304-猴頭杏鮑菇-01.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt; &lt;img src="fig/EGB-1101-20210304-猴頭杏鮑菇-02.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+     &lt;/div&gt;
+    &lt;a class="carousel-control-prev" href="#carouselExampleIndicators-20210304-1415" role="button" data-slide="prev"&gt;
+         &lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+         &lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+     &lt;/a&gt;
+     &lt;a class="carousel-control-next" href="#carouselExampleIndicators-20210304-1415" role="button" data-slide="next"&gt;
+         &lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+         &lt;span class="sr-only"&gt;Next&lt;/span&gt;
+    &lt;/a&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="fig/EGB-1101-猴頭杏鮑菇-03.jpg" class="img-fluid" &gt;
+&lt;img src="fig/EGB-1101-猴頭杏鮑菇-04.jpg" class="img-fluid" &gt;
+&lt;img src="fig/EGB-1101-猴頭杏鮑菇-05.jpg" class="img-fluid" &gt;
+&lt;img src="fig/EGB-1101-猴頭杏鮑菇-06.jpg" class="img-fluid" &gt;</t>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-20210302-1528" class="carousel slide img-fluid" data-ride="carousel" style="width:600px"&gt;
+    &lt;ol class="carousel-indicators"&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="1" class="active"&gt;&lt;/li&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="2"&gt;&lt;/li&gt;
+    &lt;/ol&gt;
+    &lt;div class="carousel-inner"&gt;
+         &lt;div class="carousel-item active"&gt; &lt;img src="fig/EGB-1101-20210302-貝親濕紙巾-01.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt; &lt;img src="fig/EGB-1101-20210302-貝親濕紙巾-02.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+     &lt;/div&gt;
+    &lt;a class="carousel-control-prev" href="#carouselExampleIndicators-20210302-1528" role="button" data-slide="prev"&gt;
+         &lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+         &lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+     &lt;/a&gt;
+     &lt;a class="carousel-control-next" href="#carouselExampleIndicators-20210302-1528" role="button" data-slide="next"&gt;
+         &lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+         &lt;span class="sr-only"&gt;Next&lt;/span&gt;
+    &lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-20210302-1441" class="carousel slide img-fluid" data-ride="carousel" style="width:600px"&gt;
+    &lt;ol class="carousel-indicators"&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="1" class="active"&gt;&lt;/li&gt;
+    &lt;/ol&gt;
+    &lt;div class="carousel-inner"&gt;
+         &lt;div class="carousel-item active"&gt; &lt;img src="fig/EGB-1101-20210302-幫寶適-01.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+     &lt;/div&gt;
+    &lt;a class="carousel-control-prev" href="#carouselExampleIndicators-20210302-1441" role="button" data-slide="prev"&gt;
+         &lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+         &lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+     &lt;/a&gt;
+     &lt;a class="carousel-control-next" href="#carouselExampleIndicators-20210302-1441" role="button" data-slide="next"&gt;
+         &lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+         &lt;span class="sr-only"&gt;Next&lt;/span&gt;
+    &lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-20210302-1326" class="carousel slide img-fluid" data-ride="carousel" style="width:600px"&gt;
+    &lt;ol class="carousel-indicators"&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="1" class="active"&gt;&lt;/li&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="2" &gt;&lt;/li&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="3" &gt;&lt;/li&gt;
+    &lt;/ol&gt;
+    &lt;div class="carousel-inner"&gt;
+         &lt;div class="carousel-item active"&gt; &lt;img src="fig/EGB-1101-20210302-消脂茶-01.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt; &lt;img src="fig/EGB-1101-20210302-消脂茶-02.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt; &lt;img src="fig/EGB-1101-20210302-消脂茶-03.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt; 
+     &lt;/div&gt;
+    &lt;a class="carousel-control-prev" href="#carouselExampleIndicators-20210302-1326" role="button" data-slide="prev"&gt;
+         &lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+         &lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+     &lt;/a&gt;
+     &lt;a class="carousel-control-next" href="#carouselExampleIndicators-20210302-1326" role="button" data-slide="next"&gt;
+         &lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+         &lt;span class="sr-only"&gt;Next&lt;/span&gt;
+    &lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -957,13 +936,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DE116E-B8D7-5E43-9774-EEEA2D0B8455}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16"/>
@@ -975,19 +954,19 @@
     <col min="5" max="5" width="56.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="20" style="6" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="70.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="116.1640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="21.6640625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="37.5" style="1"/>
+    <col min="8" max="9" width="20" style="6" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="70.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="116.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21.6640625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="37.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1001,10 +980,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>6</v>
@@ -1012,49 +991,52 @@
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.6">
+    <row r="2" spans="1:17" ht="405">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="G2" s="5">
         <v>99</v>
@@ -1062,155 +1044,134 @@
       <c r="H2" s="6">
         <v>89</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:17" ht="404">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="68">
-      <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="6">
+        <v>270</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="4">
-        <v>870</v>
-      </c>
-      <c r="H3" s="6">
-        <v>870</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="4" spans="1:16" ht="409.6">
+    <row r="4" spans="1:17" ht="372">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="4">
+        <v>1370</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1370</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="409.6">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="6">
-        <v>270</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="4">
+        <v>300</v>
+      </c>
+      <c r="H5" s="6">
+        <v>300</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="404">
-      <c r="A5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1370</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1370</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="409.6">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="O5" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="4">
-        <v>300</v>
-      </c>
-      <c r="H6" s="6">
-        <v>300</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P3" r:id="rId1" xr:uid="{1D99966D-54B4-9F40-AF5F-4DB0F22F9888}"/>
-    <hyperlink ref="P5" r:id="rId2" xr:uid="{BB7BCCE0-FCB4-5743-AD50-5AC1F75375BD}"/>
+    <hyperlink ref="Q4" r:id="rId1" xr:uid="{BB7BCCE0-FCB4-5743-AD50-5AC1F75375BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
